--- a/G2_MON32/doc/146#C120_MON32标定模板_20201112.xlsx
+++ b/G2_MON32/doc/146#C120_MON32标定模板_20201112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24940" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="EEPROM写入模板" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="31">
   <si>
     <t>debug</t>
   </si>
@@ -116,9 +116,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -130,11 +130,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,8 +159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +183,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -183,31 +235,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,53 +268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,7 +289,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,19 +415,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,145 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,20 +485,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +537,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,54 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,16 +1091,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U235"/>
+  <dimension ref="A1:U270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222:C231"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187:E220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="13.8" customWidth="1"/>
-    <col min="10" max="10" width="28.9833333333333" customWidth="1"/>
+    <col min="10" max="10" width="28.9818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2067,10 +2067,30 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <v>-11000</v>
+        <v>-2600</v>
       </c>
       <c r="F52">
-        <v>-11500</v>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>-3000</v>
+      </c>
+      <c r="F53">
+        <v>8500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2081,16 +2101,16 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>-1000</v>
+        <v>-3400</v>
       </c>
       <c r="F54">
-        <v>3500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2101,36 +2121,16 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>-1400</v>
+        <v>-11000</v>
       </c>
       <c r="F55">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>-1800</v>
-      </c>
-      <c r="F56">
-        <v>5500</v>
+        <v>-11500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2144,13 +2144,13 @@
         <v>20</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>-2200</v>
+        <v>-1000</v>
       </c>
       <c r="F57">
-        <v>6500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2164,13 +2164,13 @@
         <v>20</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>-2600</v>
+        <v>-1400</v>
       </c>
       <c r="F58">
-        <v>7500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2184,13 +2184,13 @@
         <v>20</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>-3000</v>
+        <v>-1800</v>
       </c>
       <c r="F59">
-        <v>8500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2204,13 +2204,13 @@
         <v>20</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>-3400</v>
+        <v>-2200</v>
       </c>
       <c r="F60">
-        <v>9500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2224,13 +2224,13 @@
         <v>20</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>-3800</v>
+        <v>-2600</v>
       </c>
       <c r="F61">
-        <v>10500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2244,13 +2244,13 @@
         <v>20</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E62">
-        <v>-4200</v>
+        <v>-3000</v>
       </c>
       <c r="F62">
-        <v>11500</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2264,13 +2264,13 @@
         <v>20</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E63">
-        <v>-4600</v>
+        <v>-3400</v>
       </c>
       <c r="F63">
-        <v>12500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2284,13 +2284,33 @@
         <v>20</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>-5000</v>
+        <v>-3800</v>
       </c>
       <c r="F64">
-        <v>13500</v>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>-4200</v>
+      </c>
+      <c r="F65">
+        <v>11500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2301,16 +2321,16 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>-2200</v>
+        <v>-4600</v>
       </c>
       <c r="F66">
-        <v>-500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2321,36 +2341,16 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E67">
-        <v>-2600</v>
+        <v>-5000</v>
       </c>
       <c r="F67">
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>-3000</v>
-      </c>
-      <c r="F68">
-        <v>-1300</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2364,13 +2364,13 @@
         <v>21</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>-3400</v>
+        <v>-2200</v>
       </c>
       <c r="F69">
-        <v>-1700</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2384,13 +2384,13 @@
         <v>21</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>-3800</v>
+        <v>-2600</v>
       </c>
       <c r="F70">
-        <v>-2100</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2404,13 +2404,13 @@
         <v>21</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>-4200</v>
+        <v>-3000</v>
       </c>
       <c r="F71">
-        <v>-2500</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2424,13 +2424,13 @@
         <v>21</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>-4600</v>
+        <v>-3400</v>
       </c>
       <c r="F72">
-        <v>-2900</v>
+        <v>-1700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2444,13 +2444,13 @@
         <v>21</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>-5000</v>
+        <v>-3800</v>
       </c>
       <c r="F73">
-        <v>-3300</v>
+        <v>-2100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2464,13 +2464,13 @@
         <v>21</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>-5400</v>
+        <v>-4200</v>
       </c>
       <c r="F74">
-        <v>-3700</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2484,13 +2484,13 @@
         <v>21</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>-5800</v>
+        <v>-4600</v>
       </c>
       <c r="F75">
-        <v>-4100</v>
+        <v>-2900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2504,13 +2504,33 @@
         <v>21</v>
       </c>
       <c r="D76">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>6200</v>
+        <v>-5000</v>
       </c>
       <c r="F76">
-        <v>4500</v>
+        <v>-3300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>-5400</v>
+      </c>
+      <c r="F77">
+        <v>-3700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2521,16 +2541,16 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>-2900</v>
+        <v>-5800</v>
       </c>
       <c r="F78">
-        <v>9500</v>
+        <v>-4100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2541,36 +2561,16 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E79">
-        <v>-3300</v>
+        <v>6200</v>
       </c>
       <c r="F79">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
-        <v>-3700</v>
-      </c>
-      <c r="F80">
-        <v>11500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2584,13 +2584,13 @@
         <v>22</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>-4100</v>
+        <v>-2900</v>
       </c>
       <c r="F81">
-        <v>12500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2604,13 +2604,13 @@
         <v>22</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>-4500</v>
+        <v>-3300</v>
       </c>
       <c r="F82">
-        <v>13500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2624,13 +2624,13 @@
         <v>22</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>-4900</v>
+        <v>-3700</v>
       </c>
       <c r="F83">
-        <v>14500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2644,13 +2644,13 @@
         <v>22</v>
       </c>
       <c r="D84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>-5300</v>
+        <v>-4100</v>
       </c>
       <c r="F84">
-        <v>15500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2664,13 +2664,13 @@
         <v>22</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>-5700</v>
+        <v>-4500</v>
       </c>
       <c r="F85">
-        <v>-2100</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2684,13 +2684,13 @@
         <v>22</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>-6100</v>
+        <v>-4900</v>
       </c>
       <c r="F86">
-        <v>-2500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2704,13 +2704,13 @@
         <v>22</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>-6500</v>
+        <v>-5300</v>
       </c>
       <c r="F87">
-        <v>-2900</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2724,64 +2724,73 @@
         <v>22</v>
       </c>
       <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>-5700</v>
+      </c>
+      <c r="F88">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>-6100</v>
+      </c>
+      <c r="F89">
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>-6500</v>
+      </c>
+      <c r="F90">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91">
         <v>11</v>
       </c>
-      <c r="E88">
+      <c r="E91">
         <v>-6900</v>
       </c>
-      <c r="F88">
+      <c r="F91">
         <v>-3300</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92">
-        <v>3</v>
-      </c>
-      <c r="E92">
-        <v>2.13</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2795,10 +2804,10 @@
         <v>23</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>2.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2812,10 +2821,10 @@
         <v>23</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>2.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2829,10 +2838,10 @@
         <v>23</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>2.16</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2846,10 +2855,10 @@
         <v>23</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>2.17</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2863,10 +2872,10 @@
         <v>23</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>2.18</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2880,10 +2889,10 @@
         <v>23</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>2.19</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2897,10 +2906,10 @@
         <v>23</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>2.2</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2914,10 +2923,10 @@
         <v>23</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>2.21</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2931,10 +2940,10 @@
         <v>23</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>2.22</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2948,10 +2957,10 @@
         <v>23</v>
       </c>
       <c r="D102">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>2.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2965,10 +2974,10 @@
         <v>23</v>
       </c>
       <c r="D103">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>2.24</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2982,10 +2991,10 @@
         <v>23</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E104">
-        <v>2.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2999,10 +3008,10 @@
         <v>23</v>
       </c>
       <c r="D105">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E105">
-        <v>2.26</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3016,10 +3025,10 @@
         <v>23</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E106">
-        <v>2.27</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3033,10 +3042,10 @@
         <v>23</v>
       </c>
       <c r="D107">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>2.28</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3050,10 +3059,10 @@
         <v>23</v>
       </c>
       <c r="D108">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E108">
-        <v>2.29</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3067,10 +3076,10 @@
         <v>23</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>2.3</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3084,10 +3093,10 @@
         <v>23</v>
       </c>
       <c r="D110">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E110">
-        <v>2.31</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3101,10 +3110,10 @@
         <v>23</v>
       </c>
       <c r="D111">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E111">
-        <v>2.32</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3118,10 +3127,10 @@
         <v>23</v>
       </c>
       <c r="D112">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E112">
-        <v>2.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3135,10 +3144,10 @@
         <v>23</v>
       </c>
       <c r="D113">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E113">
-        <v>2.34000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3152,10 +3161,10 @@
         <v>23</v>
       </c>
       <c r="D114">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E114">
-        <v>2.35000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3169,10 +3178,10 @@
         <v>23</v>
       </c>
       <c r="D115">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E115">
-        <v>2.36000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3186,10 +3195,10 @@
         <v>23</v>
       </c>
       <c r="D116">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E116">
-        <v>2.37000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3203,10 +3212,10 @@
         <v>23</v>
       </c>
       <c r="D117">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E117">
-        <v>2.38000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3220,10 +3229,10 @@
         <v>23</v>
       </c>
       <c r="D118">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>2.39000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3237,10 +3246,10 @@
         <v>23</v>
       </c>
       <c r="D119">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E119">
-        <v>2.40000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3254,10 +3263,10 @@
         <v>23</v>
       </c>
       <c r="D120">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E120">
-        <v>2.41000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3271,10 +3280,10 @@
         <v>23</v>
       </c>
       <c r="D121">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>2.42000000000001</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3288,10 +3297,10 @@
         <v>23</v>
       </c>
       <c r="D122">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E122">
-        <v>2.43000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3305,10 +3314,10 @@
         <v>23</v>
       </c>
       <c r="D123">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E123">
-        <v>2.44000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3322,10 +3331,10 @@
         <v>23</v>
       </c>
       <c r="D124">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E124">
-        <v>2.45000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3339,10 +3348,10 @@
         <v>23</v>
       </c>
       <c r="D125">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E125">
-        <v>2.46000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3356,10 +3365,10 @@
         <v>23</v>
       </c>
       <c r="D126">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E126">
-        <v>2.47000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3373,10 +3382,10 @@
         <v>23</v>
       </c>
       <c r="D127">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E127">
-        <v>2.48000000000001</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3390,10 +3399,10 @@
         <v>23</v>
       </c>
       <c r="D128">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E128">
-        <v>2.49000000000001</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3407,10 +3416,10 @@
         <v>23</v>
       </c>
       <c r="D129">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E129">
-        <v>2.50000000000001</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3424,10 +3433,10 @@
         <v>23</v>
       </c>
       <c r="D130">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E130">
-        <v>2.51000000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3441,10 +3450,10 @@
         <v>23</v>
       </c>
       <c r="D131">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E131">
-        <v>2.52000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3458,10 +3467,10 @@
         <v>23</v>
       </c>
       <c r="D132">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E132">
-        <v>2.53000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3475,10 +3484,10 @@
         <v>23</v>
       </c>
       <c r="D133">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E133">
-        <v>2.54000000000001</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3492,10 +3501,10 @@
         <v>23</v>
       </c>
       <c r="D134">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E134">
-        <v>2.55000000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3509,10 +3518,10 @@
         <v>23</v>
       </c>
       <c r="D135">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E135">
-        <v>2.56000000000001</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3526,10 +3535,10 @@
         <v>23</v>
       </c>
       <c r="D136">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E136">
-        <v>2.57000000000001</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3543,10 +3552,10 @@
         <v>23</v>
       </c>
       <c r="D137">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E137">
-        <v>2.58000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3560,10 +3569,10 @@
         <v>23</v>
       </c>
       <c r="D138">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E138">
-        <v>2.59000000000001</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3577,10 +3586,10 @@
         <v>23</v>
       </c>
       <c r="D139">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E139">
-        <v>2.60000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3594,10 +3603,10 @@
         <v>23</v>
       </c>
       <c r="D140">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E140">
-        <v>2.61000000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3611,10 +3620,10 @@
         <v>23</v>
       </c>
       <c r="D141">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E141">
-        <v>2.62000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3628,10 +3637,10 @@
         <v>23</v>
       </c>
       <c r="D142">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E142">
-        <v>2.63000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3645,10 +3654,10 @@
         <v>23</v>
       </c>
       <c r="D143">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E143">
-        <v>2.64000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3662,10 +3671,10 @@
         <v>23</v>
       </c>
       <c r="D144">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E144">
-        <v>2.65000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3679,10 +3688,10 @@
         <v>23</v>
       </c>
       <c r="D145">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E145">
-        <v>2.66000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3696,10 +3705,10 @@
         <v>23</v>
       </c>
       <c r="D146">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E146">
-        <v>2.67000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3713,10 +3722,10 @@
         <v>23</v>
       </c>
       <c r="D147">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E147">
-        <v>2.68000000000001</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3730,10 +3739,10 @@
         <v>23</v>
       </c>
       <c r="D148">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E148">
-        <v>2.69000000000001</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3747,10 +3756,10 @@
         <v>23</v>
       </c>
       <c r="D149">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E149">
-        <v>2.70000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3764,10 +3773,10 @@
         <v>23</v>
       </c>
       <c r="D150">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E150">
-        <v>2.71000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3781,10 +3790,10 @@
         <v>23</v>
       </c>
       <c r="D151">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E151">
-        <v>2.72000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3798,10 +3807,10 @@
         <v>23</v>
       </c>
       <c r="D152">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E152">
-        <v>2.73000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3815,10 +3824,10 @@
         <v>23</v>
       </c>
       <c r="D153">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E153">
-        <v>2.74000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3832,10 +3841,10 @@
         <v>23</v>
       </c>
       <c r="D154">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E154">
-        <v>2.75000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3849,10 +3858,10 @@
         <v>23</v>
       </c>
       <c r="D155">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E155">
-        <v>2.76000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3866,10 +3875,10 @@
         <v>23</v>
       </c>
       <c r="D156">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E156">
-        <v>2.77000000000001</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3883,10 +3892,10 @@
         <v>23</v>
       </c>
       <c r="D157">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E157">
-        <v>2.78000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3900,10 +3909,10 @@
         <v>23</v>
       </c>
       <c r="D158">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E158">
-        <v>2.79000000000002</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3917,10 +3926,10 @@
         <v>23</v>
       </c>
       <c r="D159">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E159">
-        <v>2.80000000000002</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3934,10 +3943,10 @@
         <v>23</v>
       </c>
       <c r="D160">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E160">
-        <v>2.81000000000002</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3951,10 +3960,10 @@
         <v>23</v>
       </c>
       <c r="D161">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E161">
-        <v>2.82000000000002</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3968,10 +3977,10 @@
         <v>23</v>
       </c>
       <c r="D162">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E162">
-        <v>2.83000000000002</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3985,10 +3994,10 @@
         <v>23</v>
       </c>
       <c r="D163">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E163">
-        <v>2.84000000000002</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4002,10 +4011,10 @@
         <v>23</v>
       </c>
       <c r="D164">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E164">
-        <v>2.85000000000002</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4019,10 +4028,10 @@
         <v>23</v>
       </c>
       <c r="D165">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E165">
-        <v>2.86000000000002</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4036,10 +4045,10 @@
         <v>23</v>
       </c>
       <c r="D166">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E166">
-        <v>2.87000000000002</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4053,10 +4062,10 @@
         <v>23</v>
       </c>
       <c r="D167">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E167">
-        <v>2.88000000000002</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4070,10 +4079,10 @@
         <v>23</v>
       </c>
       <c r="D168">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E168">
-        <v>2.89000000000002</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4087,10 +4096,10 @@
         <v>23</v>
       </c>
       <c r="D169">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E169">
-        <v>2.90000000000002</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4104,10 +4113,10 @@
         <v>23</v>
       </c>
       <c r="D170">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E170">
-        <v>2.91000000000002</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4121,10 +4130,10 @@
         <v>23</v>
       </c>
       <c r="D171">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E171">
-        <v>2.92000000000002</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4138,10 +4147,10 @@
         <v>23</v>
       </c>
       <c r="D172">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E172">
-        <v>2.93000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4155,10 +4164,10 @@
         <v>23</v>
       </c>
       <c r="D173">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E173">
-        <v>2.94000000000002</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4172,10 +4181,10 @@
         <v>23</v>
       </c>
       <c r="D174">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E174">
-        <v>2.95000000000002</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4189,10 +4198,10 @@
         <v>23</v>
       </c>
       <c r="D175">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E175">
-        <v>2.96000000000002</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4206,10 +4215,10 @@
         <v>23</v>
       </c>
       <c r="D176">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E176">
-        <v>2.97000000000002</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4223,10 +4232,10 @@
         <v>23</v>
       </c>
       <c r="D177">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E177">
-        <v>2.98000000000002</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4240,10 +4249,10 @@
         <v>23</v>
       </c>
       <c r="D178">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E178">
-        <v>2.99000000000002</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4257,10 +4266,10 @@
         <v>23</v>
       </c>
       <c r="D179">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E179">
-        <v>3.00000000000002</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4274,10 +4283,10 @@
         <v>23</v>
       </c>
       <c r="D180">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E180">
-        <v>3.01000000000002</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4291,10 +4300,10 @@
         <v>23</v>
       </c>
       <c r="D181">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E181">
-        <v>3.02000000000002</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4308,10 +4317,10 @@
         <v>23</v>
       </c>
       <c r="D182">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E182">
-        <v>3.03000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4325,10 +4334,10 @@
         <v>23</v>
       </c>
       <c r="D183">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E183">
-        <v>3.04000000000002</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4342,10 +4351,10 @@
         <v>23</v>
       </c>
       <c r="D184">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E184">
-        <v>3.05000000000002</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4359,10 +4368,10 @@
         <v>23</v>
       </c>
       <c r="D185">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E185">
-        <v>3.06000000000002</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4376,10 +4385,10 @@
         <v>23</v>
       </c>
       <c r="D186">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E186">
-        <v>3.07000000000002</v>
+        <v>0.940000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4393,954 +4402,1549 @@
         <v>23</v>
       </c>
       <c r="D187">
+        <v>95</v>
+      </c>
+      <c r="E187">
+        <v>0.950000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188">
+        <v>96</v>
+      </c>
+      <c r="E188">
+        <v>0.960000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189">
+        <v>97</v>
+      </c>
+      <c r="E189">
+        <v>0.970000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190">
         <v>98</v>
       </c>
-      <c r="E187">
-        <v>3.07000000000002</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="E190">
+        <v>0.980000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191">
+        <v>99</v>
+      </c>
+      <c r="E191">
+        <v>0.990000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192">
+        <v>100</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193">
+        <v>101</v>
+      </c>
+      <c r="E193">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194">
+        <v>102</v>
+      </c>
+      <c r="E194">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195">
+        <v>103</v>
+      </c>
+      <c r="E195">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196">
+        <v>104</v>
+      </c>
+      <c r="E196">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="s">
+        <v>23</v>
+      </c>
+      <c r="D197">
+        <v>105</v>
+      </c>
+      <c r="E197">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198">
+        <v>106</v>
+      </c>
+      <c r="E198">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199">
+        <v>107</v>
+      </c>
+      <c r="E199">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200">
+        <v>108</v>
+      </c>
+      <c r="E200">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201">
+        <v>109</v>
+      </c>
+      <c r="E201">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>23</v>
+      </c>
+      <c r="D202">
+        <v>110</v>
+      </c>
+      <c r="E202">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203">
+        <v>111</v>
+      </c>
+      <c r="E203">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>23</v>
+      </c>
+      <c r="D204">
+        <v>112</v>
+      </c>
+      <c r="E204">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205">
+        <v>113</v>
+      </c>
+      <c r="E205">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206">
+        <v>114</v>
+      </c>
+      <c r="E206">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207">
+        <v>115</v>
+      </c>
+      <c r="E207">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208">
+        <v>116</v>
+      </c>
+      <c r="E208">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209">
+        <v>117</v>
+      </c>
+      <c r="E209">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210">
+        <v>118</v>
+      </c>
+      <c r="E210">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" t="s">
+        <v>23</v>
+      </c>
+      <c r="D211">
+        <v>119</v>
+      </c>
+      <c r="E211">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212">
+        <v>120</v>
+      </c>
+      <c r="E212">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213">
+        <v>121</v>
+      </c>
+      <c r="E213">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" t="s">
+        <v>23</v>
+      </c>
+      <c r="D214">
+        <v>122</v>
+      </c>
+      <c r="E214">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215">
+        <v>123</v>
+      </c>
+      <c r="E215">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216">
+        <v>124</v>
+      </c>
+      <c r="E216">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217">
+        <v>125</v>
+      </c>
+      <c r="E217">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218">
+        <v>126</v>
+      </c>
+      <c r="E218">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219">
+        <v>127</v>
+      </c>
+      <c r="E219">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" t="s">
+        <v>23</v>
+      </c>
+      <c r="D220">
+        <v>128</v>
+      </c>
+      <c r="E220">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221">
+        <v>129</v>
+      </c>
+      <c r="E221">
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222">
+        <v>130</v>
+      </c>
+      <c r="E222">
+        <v>-1.98</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" t="s">
         <v>24</v>
       </c>
-      <c r="D189">
+      <c r="D224">
         <v>1</v>
       </c>
-      <c r="E189">
-        <v>625</v>
-      </c>
-      <c r="F189">
-        <v>3785</v>
-      </c>
-      <c r="G189">
-        <v>1435</v>
-      </c>
-      <c r="H189">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="E224">
+        <v>500</v>
+      </c>
+      <c r="F224">
+        <v>2605</v>
+      </c>
+      <c r="G224">
+        <v>1514</v>
+      </c>
+      <c r="H224">
+        <v>-6.35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" t="s">
         <v>24</v>
       </c>
-      <c r="D190">
+      <c r="D225">
         <v>2</v>
       </c>
-      <c r="E190">
-        <v>937.5</v>
-      </c>
-      <c r="F190">
-        <v>3730</v>
-      </c>
-      <c r="G190">
-        <v>1589</v>
-      </c>
-      <c r="H190">
-        <v>-2.79</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="E225">
+        <v>800</v>
+      </c>
+      <c r="F225">
+        <v>2530</v>
+      </c>
+      <c r="G225">
+        <v>1659</v>
+      </c>
+      <c r="H225">
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" t="s">
         <v>24</v>
       </c>
-      <c r="D191">
+      <c r="D226">
         <v>3</v>
       </c>
-      <c r="E191">
-        <v>1362.5</v>
-      </c>
-      <c r="F191">
-        <v>3645</v>
-      </c>
-      <c r="G191">
-        <v>1680</v>
-      </c>
-      <c r="H191">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="E226">
+        <v>1200</v>
+      </c>
+      <c r="F226">
+        <v>2430</v>
+      </c>
+      <c r="G226">
+        <v>1753</v>
+      </c>
+      <c r="H226">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" t="s">
         <v>24</v>
       </c>
-      <c r="D192">
+      <c r="D227">
         <v>4</v>
       </c>
-      <c r="E192">
-        <v>1750</v>
-      </c>
-      <c r="F192">
-        <v>3550</v>
-      </c>
-      <c r="G192">
-        <v>1743</v>
-      </c>
-      <c r="H192">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="E227">
+        <v>1800</v>
+      </c>
+      <c r="F227">
+        <v>2230</v>
+      </c>
+      <c r="G227">
+        <v>1833</v>
+      </c>
+      <c r="H227">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" t="s">
         <v>24</v>
       </c>
-      <c r="D193">
+      <c r="D228">
         <v>5</v>
       </c>
-      <c r="E193">
-        <v>2187.5</v>
-      </c>
-      <c r="F193">
-        <v>3435</v>
-      </c>
-      <c r="G193">
-        <v>1780</v>
-      </c>
-      <c r="H193">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" t="s">
-        <v>14</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="E228">
+        <v>2500</v>
+      </c>
+      <c r="F228">
+        <v>1950</v>
+      </c>
+      <c r="G228">
+        <v>1890</v>
+      </c>
+      <c r="H228">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" t="s">
         <v>24</v>
       </c>
-      <c r="D194">
+      <c r="D229">
         <v>6</v>
       </c>
-      <c r="E194">
-        <v>2625</v>
-      </c>
-      <c r="F194">
-        <v>3305</v>
-      </c>
-      <c r="G194">
-        <v>1816</v>
-      </c>
-      <c r="H194">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" t="s">
         <v>24</v>
       </c>
-      <c r="D195">
+      <c r="D230">
         <v>7</v>
       </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" t="s">
         <v>24</v>
       </c>
-      <c r="D196">
+      <c r="D231">
         <v>8</v>
       </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" t="s">
         <v>24</v>
       </c>
-      <c r="D197">
+      <c r="D232">
         <v>9</v>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198" t="s">
-        <v>14</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" t="s">
         <v>24</v>
       </c>
-      <c r="D198">
+      <c r="D233">
         <v>10</v>
       </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" t="s">
-        <v>14</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" t="s">
         <v>25</v>
       </c>
-      <c r="D200">
+      <c r="D235">
         <v>1</v>
       </c>
-      <c r="E200">
-        <v>625</v>
-      </c>
-      <c r="F200">
-        <v>3785</v>
-      </c>
-      <c r="G200">
-        <v>1435</v>
-      </c>
-      <c r="H200">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B201" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="E235">
+        <v>650</v>
+      </c>
+      <c r="F235">
+        <v>3650</v>
+      </c>
+      <c r="G235">
+        <v>1503</v>
+      </c>
+      <c r="H235">
+        <v>-6.44</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" t="s">
         <v>25</v>
       </c>
-      <c r="D201">
+      <c r="D236">
         <v>2</v>
       </c>
-      <c r="E201">
-        <v>937.5</v>
-      </c>
-      <c r="F201">
-        <v>3730</v>
-      </c>
-      <c r="G201">
-        <v>1589</v>
-      </c>
-      <c r="H201">
-        <v>-2.79</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="E236">
+        <v>900</v>
+      </c>
+      <c r="F236">
+        <v>3610</v>
+      </c>
+      <c r="G236">
+        <v>1624</v>
+      </c>
+      <c r="H236">
+        <v>-2.71</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" t="s">
         <v>25</v>
       </c>
-      <c r="D202">
+      <c r="D237">
         <v>3</v>
       </c>
-      <c r="E202">
-        <v>1362.5</v>
-      </c>
-      <c r="F202">
-        <v>3645</v>
-      </c>
-      <c r="G202">
-        <v>1680</v>
-      </c>
-      <c r="H202">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" t="s">
+      <c r="E237">
+        <v>1350</v>
+      </c>
+      <c r="F237">
+        <v>3525</v>
+      </c>
+      <c r="G237">
+        <v>1731</v>
+      </c>
+      <c r="H237">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" t="s">
         <v>25</v>
       </c>
-      <c r="D203">
+      <c r="D238">
         <v>4</v>
       </c>
-      <c r="E203">
-        <v>1750</v>
-      </c>
-      <c r="F203">
-        <v>3550</v>
-      </c>
-      <c r="G203">
-        <v>1743</v>
-      </c>
-      <c r="H203">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="E238">
+        <v>1800</v>
+      </c>
+      <c r="F238">
+        <v>3420</v>
+      </c>
+      <c r="G238">
+        <v>1793</v>
+      </c>
+      <c r="H238">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" t="s">
         <v>25</v>
       </c>
-      <c r="D204">
+      <c r="D239">
         <v>5</v>
       </c>
-      <c r="E204">
-        <v>2187.5</v>
-      </c>
-      <c r="F204">
-        <v>3435</v>
-      </c>
-      <c r="G204">
-        <v>1780</v>
-      </c>
-      <c r="H204">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="E239">
+        <v>2500</v>
+      </c>
+      <c r="F239">
+        <v>3220</v>
+      </c>
+      <c r="G239">
+        <v>1857</v>
+      </c>
+      <c r="H239">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" t="s">
         <v>25</v>
       </c>
-      <c r="D205">
+      <c r="D240">
         <v>6</v>
       </c>
-      <c r="E205">
-        <v>2625</v>
-      </c>
-      <c r="F205">
-        <v>3305</v>
-      </c>
-      <c r="G205">
-        <v>1816</v>
-      </c>
-      <c r="H205">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" t="s">
         <v>25</v>
       </c>
-      <c r="D206">
+      <c r="D241">
         <v>7</v>
       </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="s">
-        <v>0</v>
-      </c>
-      <c r="B207" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" t="s">
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" t="s">
         <v>25</v>
       </c>
-      <c r="D207">
+      <c r="D242">
         <v>8</v>
       </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" t="s">
-        <v>14</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" t="s">
         <v>25</v>
       </c>
-      <c r="D208">
+      <c r="D243">
         <v>9</v>
       </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>0</v>
-      </c>
-      <c r="B209" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" t="s">
         <v>25</v>
       </c>
-      <c r="D209">
+      <c r="D244">
         <v>10</v>
       </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" t="s">
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" t="s">
         <v>26</v>
       </c>
-      <c r="D211">
+      <c r="D246">
         <v>1</v>
       </c>
-      <c r="E211">
-        <v>1810</v>
-      </c>
-      <c r="F211">
+      <c r="E246">
+        <v>1942</v>
+      </c>
+      <c r="F246">
         <v>-10</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="A212" t="s">
-        <v>0</v>
-      </c>
-      <c r="B212" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" t="s">
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" t="s">
         <v>26</v>
       </c>
-      <c r="D212">
+      <c r="D247">
         <v>2</v>
       </c>
-      <c r="E212">
-        <v>1875</v>
-      </c>
-      <c r="F212">
+      <c r="E247">
+        <v>1974</v>
+      </c>
+      <c r="F247">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248">
+        <v>3</v>
+      </c>
+      <c r="E248">
+        <v>2008</v>
+      </c>
+      <c r="F248">
         <v>-8</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
-      <c r="A213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B213" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" t="s">
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" t="s">
         <v>26</v>
       </c>
-      <c r="D213">
+      <c r="D249">
+        <v>4</v>
+      </c>
+      <c r="E249">
+        <v>2042</v>
+      </c>
+      <c r="F249">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <v>2074</v>
+      </c>
+      <c r="F250">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251">
+        <v>6</v>
+      </c>
+      <c r="E251">
+        <v>2108</v>
+      </c>
+      <c r="F251">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252">
+        <v>7</v>
+      </c>
+      <c r="E252">
+        <v>2140</v>
+      </c>
+      <c r="F252">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+      <c r="D253">
+        <v>8</v>
+      </c>
+      <c r="E253">
+        <v>2171</v>
+      </c>
+      <c r="F253">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" t="s">
+        <v>26</v>
+      </c>
+      <c r="D254">
+        <v>9</v>
+      </c>
+      <c r="E254">
+        <v>2203</v>
+      </c>
+      <c r="F254">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
+      </c>
+      <c r="E255">
+        <v>2250</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1959</v>
+      </c>
+      <c r="F257">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" t="s">
+        <v>27</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>1992</v>
+      </c>
+      <c r="F258">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" t="s">
+        <v>27</v>
+      </c>
+      <c r="D259">
         <v>3</v>
       </c>
-      <c r="E213">
-        <v>1940</v>
-      </c>
-      <c r="F213">
+      <c r="E259">
+        <v>2032</v>
+      </c>
+      <c r="F259">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" t="s">
+        <v>27</v>
+      </c>
+      <c r="D260">
+        <v>4</v>
+      </c>
+      <c r="E260">
+        <v>2064</v>
+      </c>
+      <c r="F260">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" t="s">
+        <v>27</v>
+      </c>
+      <c r="D261">
+        <v>5</v>
+      </c>
+      <c r="E261">
+        <v>2097</v>
+      </c>
+      <c r="F261">
         <v>-6</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="A214" t="s">
-        <v>0</v>
-      </c>
-      <c r="B214" t="s">
-        <v>14</v>
-      </c>
-      <c r="C214" t="s">
-        <v>26</v>
-      </c>
-      <c r="D214">
-        <v>4</v>
-      </c>
-      <c r="E214">
-        <v>2005</v>
-      </c>
-      <c r="F214">
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" t="s">
+        <v>27</v>
+      </c>
+      <c r="D262">
+        <v>6</v>
+      </c>
+      <c r="E262">
+        <v>2129</v>
+      </c>
+      <c r="F262">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" t="s">
+        <v>27</v>
+      </c>
+      <c r="D263">
+        <v>7</v>
+      </c>
+      <c r="E263">
+        <v>2161</v>
+      </c>
+      <c r="F263">
         <v>-4</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
-      <c r="A215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215" t="s">
-        <v>14</v>
-      </c>
-      <c r="C215" t="s">
-        <v>26</v>
-      </c>
-      <c r="D215">
-        <v>5</v>
-      </c>
-      <c r="E215">
-        <v>2070</v>
-      </c>
-      <c r="F215">
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" t="s">
+        <v>27</v>
+      </c>
+      <c r="D264">
+        <v>8</v>
+      </c>
+      <c r="E264">
+        <v>2194</v>
+      </c>
+      <c r="F264">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265">
+        <v>9</v>
+      </c>
+      <c r="E265">
+        <v>2227</v>
+      </c>
+      <c r="F265">
         <v>-2</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
-      <c r="A216" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216" t="s">
-        <v>14</v>
-      </c>
-      <c r="C216" t="s">
-        <v>26</v>
-      </c>
-      <c r="D216">
-        <v>6</v>
-      </c>
-      <c r="E216">
-        <v>2140</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B217" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" t="s">
-        <v>26</v>
-      </c>
-      <c r="D217">
-        <v>7</v>
-      </c>
-      <c r="E217">
-        <v>2200</v>
-      </c>
-      <c r="F217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" t="s">
-        <v>14</v>
-      </c>
-      <c r="C218" t="s">
-        <v>26</v>
-      </c>
-      <c r="D218">
-        <v>8</v>
-      </c>
-      <c r="E218">
-        <v>2270</v>
-      </c>
-      <c r="F218">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" t="s">
-        <v>0</v>
-      </c>
-      <c r="B219" t="s">
-        <v>14</v>
-      </c>
-      <c r="C219" t="s">
-        <v>26</v>
-      </c>
-      <c r="D219">
-        <v>9</v>
-      </c>
-      <c r="E219">
-        <v>2334</v>
-      </c>
-      <c r="F219">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220" t="s">
-        <v>14</v>
-      </c>
-      <c r="C220" t="s">
-        <v>26</v>
-      </c>
-      <c r="D220">
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" t="s">
+        <v>27</v>
+      </c>
+      <c r="D266">
         <v>10</v>
       </c>
-      <c r="E220">
-        <v>2400</v>
-      </c>
-      <c r="F220">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B222" t="s">
-        <v>14</v>
-      </c>
-      <c r="C222" t="s">
-        <v>27</v>
-      </c>
-      <c r="D222">
-        <v>1</v>
-      </c>
-      <c r="E222">
-        <v>1810</v>
-      </c>
-      <c r="F222">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223" t="s">
-        <v>14</v>
-      </c>
-      <c r="C223" t="s">
-        <v>27</v>
-      </c>
-      <c r="D223">
-        <v>2</v>
-      </c>
-      <c r="E223">
-        <v>1875</v>
-      </c>
-      <c r="F223">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224" t="s">
-        <v>14</v>
-      </c>
-      <c r="C224" t="s">
-        <v>27</v>
-      </c>
-      <c r="D224">
-        <v>3</v>
-      </c>
-      <c r="E224">
-        <v>1940</v>
-      </c>
-      <c r="F224">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" t="s">
-        <v>0</v>
-      </c>
-      <c r="B225" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" t="s">
-        <v>27</v>
-      </c>
-      <c r="D225">
-        <v>4</v>
-      </c>
-      <c r="E225">
-        <v>2005</v>
-      </c>
-      <c r="F225">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" t="s">
-        <v>0</v>
-      </c>
-      <c r="B226" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" t="s">
-        <v>27</v>
-      </c>
-      <c r="D226">
-        <v>5</v>
-      </c>
-      <c r="E226">
-        <v>2070</v>
-      </c>
-      <c r="F226">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" t="s">
-        <v>0</v>
-      </c>
-      <c r="B227" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" t="s">
-        <v>27</v>
-      </c>
-      <c r="D227">
-        <v>6</v>
-      </c>
-      <c r="E227">
-        <v>2140</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" t="s">
-        <v>0</v>
-      </c>
-      <c r="B228" t="s">
-        <v>14</v>
-      </c>
-      <c r="C228" t="s">
-        <v>27</v>
-      </c>
-      <c r="D228">
-        <v>7</v>
-      </c>
-      <c r="E228">
-        <v>2200</v>
-      </c>
-      <c r="F228">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" t="s">
-        <v>0</v>
-      </c>
-      <c r="B229" t="s">
-        <v>14</v>
-      </c>
-      <c r="C229" t="s">
-        <v>27</v>
-      </c>
-      <c r="D229">
-        <v>8</v>
-      </c>
-      <c r="E229">
-        <v>2270</v>
-      </c>
-      <c r="F229">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" t="s">
-        <v>14</v>
-      </c>
-      <c r="C230" t="s">
-        <v>27</v>
-      </c>
-      <c r="D230">
-        <v>9</v>
-      </c>
-      <c r="E230">
-        <v>2334</v>
-      </c>
-      <c r="F230">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" t="s">
-        <v>0</v>
-      </c>
-      <c r="B231" t="s">
-        <v>14</v>
-      </c>
-      <c r="C231" t="s">
-        <v>27</v>
-      </c>
-      <c r="D231">
-        <v>10</v>
-      </c>
-      <c r="E231">
-        <v>2400</v>
-      </c>
-      <c r="F231">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
-      <c r="A233" t="s">
-        <v>0</v>
-      </c>
-      <c r="B233" t="s">
-        <v>14</v>
-      </c>
-      <c r="C233" t="s">
+      <c r="E266">
+        <v>2292</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268" t="s">
         <v>28</v>
       </c>
-      <c r="D233">
+      <c r="D268">
         <v>44.5</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="J268" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5377,7 +5981,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5394,7 +5998,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
